--- a/Outputs/all_per_year.xlsx
+++ b/Outputs/all_per_year.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mohsen Alam\outputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google Drive\Cal State LA\Fall 2020\CIS 4560\Project\Git\Hive-on-Yelp\Outputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{AEB2E909-3EF6-498A-A725-C2E2BA3E9157}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29430F9F-5132-41C6-8FBE-E8DB66E04EF4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="all_per_year" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -524,8 +524,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -764,7 +765,7 @@
             <c:numRef>
               <c:f>all_per_year!$B$2:$B$17</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>82</c:v>
@@ -917,7 +918,7 @@
             <c:numRef>
               <c:f>all_per_year!$C$2:$C$17</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>12</c:v>
@@ -1070,7 +1071,7 @@
             <c:numRef>
               <c:f>all_per_year!$D$2:$D$17</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -1223,7 +1224,7 @@
             <c:numRef>
               <c:f>all_per_year!$E$2:$E$17</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -1376,7 +1377,7 @@
             <c:numRef>
               <c:f>all_per_year!$F$2:$F$17</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -1519,7 +1520,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="#,##0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2512,38 +2513,39 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection sqref="A1:F17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="15.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.08984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.6328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2551,19 +2553,19 @@
       <c r="A2">
         <v>2004</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>82</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>12</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
@@ -2571,19 +2573,19 @@
       <c r="A3">
         <v>2005</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>1022</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>875</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
@@ -2591,19 +2593,19 @@
       <c r="A4">
         <v>2006</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>6052</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>5030</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <v>896</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="1" t="s">
         <v>0</v>
       </c>
     </row>
@@ -2611,19 +2613,19 @@
       <c r="A5">
         <v>2007</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <v>17155</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <v>21130</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="1">
         <v>2368</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
@@ -2631,19 +2633,19 @@
       <c r="A6">
         <v>2008</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="1">
         <v>34327</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <v>56996</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="1">
         <v>3592</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="1" t="s">
         <v>0</v>
       </c>
     </row>
@@ -2651,19 +2653,19 @@
       <c r="A7">
         <v>2009</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="1">
         <v>68314</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="1">
         <v>100760</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="1">
         <v>6369</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="1">
         <v>957</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="1" t="s">
         <v>0</v>
       </c>
     </row>
@@ -2671,19 +2673,19 @@
       <c r="A8">
         <v>2010</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="1">
         <v>115106</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="1">
         <v>186752</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="1">
         <v>10238</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="1">
         <v>41922</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="1">
         <v>393953</v>
       </c>
     </row>
@@ -2691,19 +2693,19 @@
       <c r="A9">
         <v>2011</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="1">
         <v>185076</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="1">
         <v>302523</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="1">
         <v>12809</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="1">
         <v>146532</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="1">
         <v>1608736</v>
       </c>
     </row>
@@ -2711,19 +2713,19 @@
       <c r="A10">
         <v>2012</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="1">
         <v>203180</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="1">
         <v>367367</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="1">
         <v>17362</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="1">
         <v>185961</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="1">
         <v>2233001</v>
       </c>
     </row>
@@ -2731,19 +2733,19 @@
       <c r="A11">
         <v>2013</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="1">
         <v>221380</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="1">
         <v>491678</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="1">
         <v>18223</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="1">
         <v>167643</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="1">
         <v>2665596</v>
       </c>
     </row>
@@ -2751,19 +2753,19 @@
       <c r="A12">
         <v>2014</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="1">
         <v>250827</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="1">
         <v>702060</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="1">
         <v>20508</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="1">
         <v>163943</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="1">
         <v>2742368</v>
       </c>
     </row>
@@ -2771,19 +2773,19 @@
       <c r="A13">
         <v>2015</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="1">
         <v>267267</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="1">
         <v>940603</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="1">
         <v>26409</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="1">
         <v>130844</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="1">
         <v>2766769</v>
       </c>
     </row>
@@ -2791,19 +2793,19 @@
       <c r="A14">
         <v>2016</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="1">
         <v>241414</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="1">
         <v>1094154</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="1">
         <v>32128</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="1">
         <v>145569</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="1">
         <v>2560414</v>
       </c>
     </row>
@@ -2811,19 +2813,19 @@
       <c r="A15">
         <v>2017</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="1">
         <v>158881</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="1">
         <v>1217292</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="1">
         <v>38645</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="1">
         <v>151006</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="1">
         <v>2307315</v>
       </c>
     </row>
@@ -2831,19 +2833,19 @@
       <c r="A16">
         <v>2018</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="1">
         <v>122892</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="1">
         <v>1318054</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="1">
         <v>43026</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="1">
         <v>107826</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="1">
         <v>2008051</v>
       </c>
     </row>
@@ -2851,24 +2853,25 @@
       <c r="A17">
         <v>2019</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="1">
         <v>75728</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="1">
         <v>1215836</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="1">
         <v>78558</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="1">
         <v>1717574</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>